--- a/2021-2022/UkładanieKart/other/minCount.xlsx
+++ b/2021-2022/UkładanieKart/other/minCount.xlsx
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Column Labels</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Row Labels</t>
+  </si>
+  <si>
+    <t>30%5</t>
+  </si>
+  <si>
+    <t>6%5</t>
+  </si>
+  <si>
+    <t>0/1</t>
   </si>
 </sst>
 </file>
@@ -90,13 +99,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1725,7 +1735,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisCol" showAll="0">
@@ -2094,10 +2104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F10"/>
+  <dimension ref="A3:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,7 +2119,8 @@
     <col min="6" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
-    <col min="10" max="11" width="4" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
     <col min="13" max="15" width="4" customWidth="1"/>
     <col min="16" max="16" width="6.85546875" customWidth="1"/>
@@ -2118,7 +2129,7 @@
     <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2126,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2145,8 +2156,11 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>1.23123E+17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2159,8 +2173,11 @@
       <c r="F5" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <v>1.23123E+17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -2175,8 +2192,11 @@
       <c r="F6" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <v>1.23123E+17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -2193,8 +2213,11 @@
       <c r="F7" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <v>1.23123E+17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2214,7 +2237,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -2232,7 +2255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -2250,6 +2273,32 @@
       </c>
       <c r="F10" s="2">
         <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>MOD(119,23)</f>
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/2021-2022/UkładanieKart/other/minCount.xlsx
+++ b/2021-2022/UkładanieKart/other/minCount.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Column Labels</t>
   </si>
@@ -50,9 +50,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Count of value</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -63,6 +60,12 @@
   </si>
   <si>
     <t>0/1</t>
+  </si>
+  <si>
+    <t>Count of value</t>
+  </si>
+  <si>
+    <t>24*5</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2110,7 @@
   <dimension ref="A3:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2118,7 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
@@ -2131,7 +2134,7 @@
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2275,19 +2278,35 @@
         <v>394</v>
       </c>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-20</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <f>MOD(119,23)</f>
-        <v>4</v>
-      </c>
       <c r="J14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2295,7 +2314,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <v>1</v>
